--- a/TCO PK.xlsx
+++ b/TCO PK.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UDP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\TCO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sizing" sheetId="10" r:id="rId1"/>
@@ -1595,6 +1595,11 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1622,11 +1627,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Collegamento ipertestuale" xfId="4" builtinId="8"/>
@@ -1693,7 +1693,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1957,10 +1956,10 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>48020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>27440</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2016,10 +2015,10 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>72694.666666666657</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>89397.894736842107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2099,11 +2098,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1905410512"/>
-        <c:axId val="-1905415952"/>
+        <c:axId val="1846203984"/>
+        <c:axId val="1846208336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1905410512"/>
+        <c:axId val="1846203984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2146,7 +2145,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1905415952"/>
+        <c:crossAx val="1846208336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2154,7 +2153,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1905415952"/>
+        <c:axId val="1846208336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2205,7 +2204,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1905410512"/>
+        <c:crossAx val="1846203984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2219,7 +2218,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2333,7 +2331,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2563,11 +2560,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1905408336"/>
-        <c:axId val="-1905409424"/>
+        <c:axId val="1846204528"/>
+        <c:axId val="1846193104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1905408336"/>
+        <c:axId val="1846204528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2610,7 +2607,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1905409424"/>
+        <c:crossAx val="1846193104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2618,7 +2615,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1905409424"/>
+        <c:axId val="1846193104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2669,7 +2666,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1905408336"/>
+        <c:crossAx val="1846204528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2683,7 +2680,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2792,12 +2788,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>x86 vs LinuxOne</a:t>
+              <a:t>5 years TCO growth with TPS small workload</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18283817271532157"/>
+          <c:y val="1.2144715806936341E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2878,40 +2881,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>300</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>350</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>400</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>480</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2923,40 +2926,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>103111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>184325</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>265539</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>387360</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>468574</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>594395</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>675609</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>797430</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>878644</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>1068574</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>1970323</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>3052003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4120180</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5201860</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6328542</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7392719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3008,40 +3011,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>300</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>350</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>400</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>480</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3059,34 +3062,34 @@
                   <c:v>920594</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>920594</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>920594</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>920594</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>999188</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>999188</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>999188</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
+                  <c:v>999188</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1076382</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>1371720</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>2249940</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3197823</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4075880</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5023797</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5901820</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3103,11 +3106,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1905407792"/>
-        <c:axId val="-1905419760"/>
+        <c:axId val="1846195824"/>
+        <c:axId val="1846196368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1905407792"/>
+        <c:axId val="1846195824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3139,7 +3142,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3206,7 +3208,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1905419760"/>
+        <c:crossAx val="1846196368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3214,7 +3216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1905419760"/>
+        <c:axId val="1846196368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3260,7 +3262,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3321,7 +3322,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1905407792"/>
+        <c:crossAx val="1846195824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3334,8 +3335,668 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>5 years TCO growth with TPS large workload</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21298935344349562"/>
+          <c:y val="2.5897151313355529E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'x86 vs LinuxOne'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x86</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'x86 vs LinuxOne'!$A$12:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'x86 vs LinuxOne'!$B$12:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1970323</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3052003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4120180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5201860</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6328542</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7392719</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8478399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10669258</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17177334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22599730</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33489524</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55245613</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>109589080</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'x86 vs LinuxOne'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LinuxOne</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'x86 vs LinuxOne'!$A$12:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'x86 vs LinuxOne'!$C$12:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1371720</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2249940</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3197823</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4075880</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5023797</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5901820</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6849752</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8675701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14153532</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18683400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27813100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46072500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>91721000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1846200176"/>
+        <c:axId val="1845153200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1846200176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>TPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1845153200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1845153200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Costo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1846200176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3483,6 +4144,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5046,27 +5747,543 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>6</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>1904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>121919</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64FDB1F2-3180-489E-95DC-143EAEDFDD47}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64FDB1F2-3180-489E-95DC-143EAEDFDD47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5087,22 +6304,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>377190</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:colOff>643890</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59BA40E8-6C10-4DBF-949C-FC6A97A8B1D2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59BA40E8-6C10-4DBF-949C-FC6A97A8B1D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5129,14 +6346,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>62160</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5150,6 +6367,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>80175</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5791,11 +7040,11 @@
   </sheetPr>
   <dimension ref="A1:AC126"/>
   <sheetViews>
-    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -5818,20 +7067,20 @@
         <v>14</v>
       </c>
       <c r="B1" s="41"/>
-      <c r="R1" s="166" t="s">
+      <c r="R1" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="167"/>
-      <c r="T1" s="167"/>
-      <c r="U1" s="167"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="166" t="s">
+      <c r="S1" s="172"/>
+      <c r="T1" s="172"/>
+      <c r="U1" s="172"/>
+      <c r="V1" s="173"/>
+      <c r="W1" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="167"/>
-      <c r="Y1" s="167"/>
-      <c r="Z1" s="167"/>
-      <c r="AA1" s="168"/>
+      <c r="X1" s="172"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="172"/>
+      <c r="AA1" s="173"/>
       <c r="AB1" s="1" t="s">
         <v>68</v>
       </c>
@@ -12659,7 +13908,7 @@
   <dimension ref="A1:AC131"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="N25" sqref="N25"/>
@@ -12686,20 +13935,20 @@
         <v>117</v>
       </c>
       <c r="B1" s="41"/>
-      <c r="R1" s="166" t="s">
+      <c r="R1" s="171" t="s">
         <v>154</v>
       </c>
-      <c r="S1" s="167"/>
-      <c r="T1" s="167"/>
-      <c r="U1" s="167"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="166" t="s">
+      <c r="S1" s="172"/>
+      <c r="T1" s="172"/>
+      <c r="U1" s="172"/>
+      <c r="V1" s="173"/>
+      <c r="W1" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="167"/>
-      <c r="Y1" s="167"/>
-      <c r="Z1" s="167"/>
-      <c r="AA1" s="168"/>
+      <c r="X1" s="172"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="172"/>
+      <c r="AA1" s="173"/>
       <c r="AB1" s="1" t="s">
         <v>68</v>
       </c>
@@ -19356,7 +20605,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19384,32 +20633,32 @@
       <c r="B3" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="169" t="s">
+      <c r="C3" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
       <c r="H3" s="41"/>
       <c r="K3" s="109" t="s">
         <v>147</v>
       </c>
-      <c r="L3" s="169" t="s">
+      <c r="L3" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="169"/>
-      <c r="N3" s="169"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="169"/>
+      <c r="M3" s="174"/>
+      <c r="N3" s="174"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="174"/>
       <c r="Q3" s="41"/>
     </row>
     <row r="4" spans="1:17" s="3" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="171" t="str">
+      <c r="A4" s="176" t="str">
         <f>'x86 TCO'!A5</f>
         <v>Rack server w  Xeon Gold 6242 20C 3.10GHz (2 Chips, 40 Cores)</v>
       </c>
-      <c r="B4" s="171"/>
+      <c r="B4" s="176"/>
       <c r="C4" s="105" t="s">
         <v>6</v>
       </c>
@@ -19448,7 +20697,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="170" t="s">
+      <c r="A5" s="175" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -19478,7 +20727,7 @@
         <f>SUM(C5:G5)</f>
         <v>147011.75999999998</v>
       </c>
-      <c r="J5" s="170" t="s">
+      <c r="J5" s="175" t="s">
         <v>0</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -19510,7 +20759,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="170"/>
+      <c r="A6" s="175"/>
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
@@ -19538,7 +20787,7 @@
         <f>SUM(C6:G6)</f>
         <v>13097429</v>
       </c>
-      <c r="J6" s="170"/>
+      <c r="J6" s="175"/>
       <c r="K6" s="2" t="s">
         <v>2</v>
       </c>
@@ -19568,41 +20817,41 @@
       </c>
     </row>
     <row r="7" spans="1:17" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="170"/>
+      <c r="A7" s="175"/>
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="172">
+      <c r="C7" s="177">
         <f>'x86 TCO'!AB86</f>
         <v>200000</v>
       </c>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="174"/>
+      <c r="D7" s="178"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="179"/>
       <c r="H7" s="69">
         <f t="shared" ref="H7" si="1">SUM(C7:G7)</f>
         <v>200000</v>
       </c>
-      <c r="J7" s="170"/>
+      <c r="J7" s="175"/>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="172">
+      <c r="L7" s="177">
         <f>'LinuxONE TCO'!AB82</f>
         <v>100000</v>
       </c>
-      <c r="M7" s="173"/>
-      <c r="N7" s="173"/>
-      <c r="O7" s="173"/>
-      <c r="P7" s="174"/>
+      <c r="M7" s="178"/>
+      <c r="N7" s="178"/>
+      <c r="O7" s="178"/>
+      <c r="P7" s="179"/>
       <c r="Q7" s="69">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="170"/>
+      <c r="A8" s="175"/>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -19630,7 +20879,7 @@
         <f>SUM(C8:G8)</f>
         <v>82320</v>
       </c>
-      <c r="J8" s="170"/>
+      <c r="J8" s="175"/>
       <c r="K8" s="2" t="s">
         <v>4</v>
       </c>
@@ -19660,7 +20909,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="170"/>
+      <c r="A9" s="175"/>
       <c r="B9" s="2" t="s">
         <v>49</v>
       </c>
@@ -19688,7 +20937,7 @@
         <f>SUM(C9:G9)</f>
         <v>30506.666666666664</v>
       </c>
-      <c r="J9" s="170"/>
+      <c r="J9" s="175"/>
       <c r="K9" s="2" t="s">
         <v>49</v>
       </c>
@@ -19718,7 +20967,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="170"/>
+      <c r="A10" s="175"/>
       <c r="B10" s="2" t="s">
         <v>52</v>
       </c>
@@ -19746,7 +20995,7 @@
         <f>SUM(C10:G10)</f>
         <v>94607.999999999971</v>
       </c>
-      <c r="J10" s="170"/>
+      <c r="J10" s="175"/>
       <c r="K10" s="2" t="s">
         <v>52</v>
       </c>
@@ -19880,21 +21129,21 @@
         <f>SUM(C7:F7)</f>
         <v>200000</v>
       </c>
-      <c r="E16" s="70" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F16" s="70" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E16" s="70">
+        <f>C8+D8+E8+F8</f>
+        <v>48020</v>
+      </c>
+      <c r="F16" s="70">
+        <f>+SUM(C9:F10)</f>
+        <v>72694.666666666657</v>
       </c>
       <c r="G16" s="70">
         <f>G11</f>
         <v>5687356.9000000004</v>
       </c>
-      <c r="H16" s="103" t="e">
+      <c r="H16" s="103">
         <f>SUM(B16:G16)</f>
-        <v>#REF!</v>
+        <v>13651875.426666668</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -19914,21 +21163,21 @@
         <f>SUM(L7:O7)</f>
         <v>100000</v>
       </c>
-      <c r="E17" s="70" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F17" s="70" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E17" s="70">
+        <f>SUM(L8:O8)</f>
+        <v>27440</v>
+      </c>
+      <c r="F17" s="70">
+        <f>SUM(L9:O10)</f>
+        <v>89397.894736842107</v>
       </c>
       <c r="G17" s="70">
         <f>P11</f>
         <v>42000</v>
       </c>
-      <c r="H17" s="103" t="e">
+      <c r="H17" s="103">
         <f>SUM(B17:G17)</f>
-        <v>#REF!</v>
+        <v>3993545.0947368424</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -20029,7 +21278,7 @@
         <f>'x86 TCO'!R35</f>
         <v>1865315</v>
       </c>
-      <c r="E32" s="179">
+      <c r="E32" s="170">
         <f>SUM(C32:D32)</f>
         <v>1970323.4</v>
       </c>
@@ -20049,7 +21298,7 @@
         <f>'LinuxONE TCO'!R31</f>
         <v>356720</v>
       </c>
-      <c r="E33" s="179">
+      <c r="E33" s="170">
         <f>SUM(C33:D33)</f>
         <v>1371720</v>
       </c>
@@ -20082,10 +21331,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20096,282 +21345,338 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="166" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="166" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="175" t="s">
+      <c r="C1" s="166" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="175" t="s">
+      <c r="D1" s="166" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="177">
+      <c r="A2" s="168">
+        <v>10</v>
+      </c>
+      <c r="B2" s="168">
+        <v>103111</v>
+      </c>
+      <c r="C2" s="168">
+        <v>920594</v>
+      </c>
+      <c r="D2" s="168">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="168">
+        <v>50</v>
+      </c>
+      <c r="B3" s="168">
+        <v>184325</v>
+      </c>
+      <c r="C3" s="168">
+        <v>920594</v>
+      </c>
+      <c r="D3" s="168">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="168">
         <v>100</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B4" s="168">
         <v>265539</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C4" s="168">
         <v>920594</v>
       </c>
-      <c r="D2" s="177">
+      <c r="D4" s="168">
         <v>347</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="177">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="168">
+        <v>150</v>
+      </c>
+      <c r="B5" s="168">
+        <v>387360</v>
+      </c>
+      <c r="C5" s="168">
+        <v>920594</v>
+      </c>
+      <c r="D5" s="168">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="168">
         <v>200</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B6" s="38">
         <v>468574</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C6" s="38">
         <v>920594</v>
       </c>
-      <c r="D3" s="177">
+      <c r="D6" s="168">
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="177">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="168">
+        <v>250</v>
+      </c>
+      <c r="B7" s="38">
+        <v>594395</v>
+      </c>
+      <c r="C7" s="38">
+        <v>999188</v>
+      </c>
+      <c r="D7" s="168">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="168">
         <v>300</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B8" s="38">
         <v>675609</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C8" s="38">
         <v>999188</v>
       </c>
-      <c r="D4" s="177">
+      <c r="D8" s="168">
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="177">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="168">
         <v>350</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B9" s="38">
         <v>797430</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C9" s="38">
         <v>999188</v>
       </c>
-      <c r="D5" s="177">
+      <c r="D9" s="168">
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="177">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="168">
         <v>400</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B10" s="38">
         <v>878644</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C10" s="38">
         <v>999188</v>
       </c>
-      <c r="D6" s="177">
+      <c r="D10" s="168">
         <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="38">
-        <v>480</v>
-      </c>
-      <c r="B7" s="38">
-        <v>1068574</v>
-      </c>
-      <c r="C7" s="38">
-        <v>1076382</v>
-      </c>
-      <c r="D7" s="38">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="38">
-        <v>1000</v>
-      </c>
-      <c r="B8" s="176">
-        <v>1970323</v>
-      </c>
-      <c r="C8" s="38">
-        <v>1371720</v>
-      </c>
-      <c r="D8" s="38">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="38">
-        <v>2000</v>
-      </c>
-      <c r="B9" s="38">
-        <v>3052003</v>
-      </c>
-      <c r="C9" s="38">
-        <v>2249940</v>
-      </c>
-      <c r="D9" s="38">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="38">
-        <v>3000</v>
-      </c>
-      <c r="B10" s="38">
-        <v>4120180</v>
-      </c>
-      <c r="C10" s="38">
-        <v>3197823</v>
-      </c>
-      <c r="D10" s="38">
-        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="38">
-        <v>4000</v>
+        <v>480</v>
       </c>
       <c r="B11" s="38">
-        <v>5201860</v>
+        <v>1068574</v>
       </c>
       <c r="C11" s="38">
-        <v>4075880</v>
+        <v>1076382</v>
       </c>
       <c r="D11" s="38">
-        <v>78</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="38">
-        <v>5000</v>
-      </c>
-      <c r="B12" s="38">
-        <v>6328542</v>
+        <v>1000</v>
+      </c>
+      <c r="B12" s="167">
+        <v>1970323</v>
       </c>
       <c r="C12" s="38">
-        <v>5023797</v>
+        <v>1371720</v>
       </c>
       <c r="D12" s="38">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="38">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="B13" s="38">
-        <v>7392719</v>
+        <v>3052003</v>
       </c>
       <c r="C13" s="38">
-        <v>5901820</v>
+        <v>2249940</v>
       </c>
       <c r="D13" s="38">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="38">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="B14" s="38">
-        <v>8478399</v>
+        <v>4120180</v>
       </c>
       <c r="C14" s="38">
-        <v>6849752</v>
+        <v>3197823</v>
       </c>
       <c r="D14" s="38">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="B15" s="38">
-        <v>10669258</v>
+        <v>5201860</v>
       </c>
       <c r="C15" s="38">
-        <v>8675701</v>
+        <v>4075880</v>
       </c>
       <c r="D15" s="38">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="38">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="B16" s="38">
-        <v>17177334</v>
+        <v>6328542</v>
       </c>
       <c r="C16" s="38">
-        <v>14153532</v>
+        <v>5023797</v>
       </c>
       <c r="D16" s="38">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="38">
+        <v>6000</v>
+      </c>
+      <c r="B17" s="38">
+        <v>7392719</v>
+      </c>
+      <c r="C17" s="38">
+        <v>5901820</v>
+      </c>
+      <c r="D17" s="38">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="38">
+        <v>7000</v>
+      </c>
+      <c r="B18" s="38">
+        <v>8478399</v>
+      </c>
+      <c r="C18" s="38">
+        <v>6849752</v>
+      </c>
+      <c r="D18" s="38">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="38">
+        <v>9000</v>
+      </c>
+      <c r="B19" s="38">
+        <v>10669258</v>
+      </c>
+      <c r="C19" s="38">
+        <v>8675701</v>
+      </c>
+      <c r="D19" s="38">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="38">
+        <v>15000</v>
+      </c>
+      <c r="B20" s="38">
+        <v>17177334</v>
+      </c>
+      <c r="C20" s="38">
+        <v>14153532</v>
+      </c>
+      <c r="D20" s="38">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="38">
         <v>20000</v>
       </c>
-      <c r="B17" s="38">
+      <c r="B21" s="38">
         <v>22599730</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C21" s="38">
         <v>18683400</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D21" s="38">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="178">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="169">
         <v>30000</v>
       </c>
-      <c r="B18" s="38">
+      <c r="B22" s="38">
         <v>33489524</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C22" s="38">
         <v>27813100</v>
       </c>
-      <c r="D18" s="178">
+      <c r="D22" s="169">
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="178">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="169">
         <v>50000</v>
       </c>
-      <c r="B19" s="178">
+      <c r="B23" s="169">
         <v>55245613</v>
       </c>
-      <c r="C19" s="178">
+      <c r="C23" s="169">
         <v>46072500</v>
       </c>
-      <c r="D19" s="178">
+      <c r="D23" s="169">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="178">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="169">
         <v>100000</v>
       </c>
-      <c r="B20" s="178">
+      <c r="B24" s="169">
         <v>109589080</v>
       </c>
-      <c r="C20" s="178">
+      <c r="C24" s="169">
         <v>91721000</v>
       </c>
-      <c r="D20" s="178">
+      <c r="D24" s="169">
         <v>84</v>
       </c>
     </row>
